--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Down1\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA23F354-B313-4231-BF4D-4E639C6CD73D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C8362-1E3E-493F-9676-99F7A1FB6E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="256">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否连板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上海洗霸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>300364</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,6 +554,424 @@
   </si>
   <si>
     <t>20200511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚飞广电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>002863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>601388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>安彩高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今飞凯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡球资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金现代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通达电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新赛股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新农开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万泰生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景津环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天迈科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏奥传感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元隆雅图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神马电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正川股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲林格尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派瑞股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世名科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京北方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北摩高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯瑞达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾可蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未名医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海天洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴研科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建科机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万通智控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金圆股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002524</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾照光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>飞龙股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金科文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三川智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波建工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博天环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">广电运通 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇中股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯撒文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国民技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华培动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威帝股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光正集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青松建化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易成新能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚太股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,21 +995,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -607,30 +1011,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -911,19 +1298,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,17 +1322,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>69</v>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -959,9 +1342,8 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -974,9 +1356,8 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -989,9 +1370,8 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1004,9 +1384,8 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,9 +1398,8 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1034,11 +1412,11 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1051,11 +1429,8 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1068,9 +1443,8 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1083,9 +1457,8 @@
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1098,9 +1471,8 @@
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1113,9 +1485,8 @@
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1128,9 +1499,8 @@
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1138,14 +1508,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1153,14 +1522,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1168,12 +1536,11 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1183,12 +1550,11 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1198,12 +1564,11 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1213,12 +1578,11 @@
         <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1228,12 +1592,11 @@
         <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1243,12 +1606,11 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1258,12 +1620,11 @@
         <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -1273,12 +1634,11 @@
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1288,12 +1648,11 @@
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1303,12 +1662,11 @@
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1318,12 +1676,11 @@
         <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1333,12 +1690,11 @@
         <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1348,12 +1704,11 @@
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1363,12 +1718,11 @@
         <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -1378,277 +1732,330 @@
         <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F43" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F49" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="1" t="s">
-        <v>87</v>
+      <c r="E52" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>132</v>
@@ -1656,59 +2063,476 @@
       <c r="C53" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="1" t="s">
-        <v>87</v>
+      <c r="E53" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="1" t="s">
-        <v>87</v>
+      <c r="E54" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="3"/>
+      <c r="D55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Down1\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C8362-1E3E-493F-9676-99F7A1FB6E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5008DB-7979-4D77-AC39-A23E9D6CA6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="372">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,6 +973,434 @@
   <si>
     <t>亚太股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>603696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌红科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安记食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中元股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美邦服饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三友医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N新产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦鸡股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御家汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃华医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新化股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东易日盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>300821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东岳硅材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈克生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震安科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>300406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九强生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮阿诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦洁股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫光国微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大通燃气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明德生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一拖股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模塑科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚天科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道道全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国网信通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>南卫股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉峰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴瑞科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金健米业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百洋股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝光股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威创股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省广集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三房巷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1309,7 +1738,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,8 +1757,11 @@
       <c r="F1" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1343,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1357,7 +1789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1371,7 +1803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1385,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1415,8 +1847,11 @@
       <c r="F7" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1444,7 +1879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1458,7 +1893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1472,7 +1907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1486,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1500,7 +1935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1514,7 +1949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1528,7 +1963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1755,7 +2190,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>106</v>
       </c>
@@ -1769,7 +2204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
@@ -1783,7 +2218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
@@ -1799,8 +2234,11 @@
       <c r="F35" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -1814,7 +2252,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -1828,7 +2266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
@@ -1845,7 +2283,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
@@ -1859,7 +2297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -1873,7 +2311,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
@@ -1889,8 +2327,11 @@
       <c r="F41" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -1904,7 +2345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
@@ -1920,8 +2361,11 @@
       <c r="F43" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
@@ -1935,7 +2379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -1949,7 +2393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>119</v>
       </c>
@@ -1963,7 +2407,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -1979,8 +2423,11 @@
       <c r="F47" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
@@ -1994,7 +2441,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -2010,8 +2457,11 @@
       <c r="F49" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -2025,7 +2475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
@@ -2039,7 +2489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
@@ -2053,7 +2503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>134</v>
       </c>
@@ -2067,7 +2517,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
@@ -2081,7 +2531,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>138</v>
       </c>
@@ -2100,8 +2550,11 @@
       <c r="F55" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>142</v>
       </c>
@@ -2115,7 +2568,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>148</v>
       </c>
@@ -2129,7 +2582,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>150</v>
       </c>
@@ -2143,7 +2596,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>151</v>
       </c>
@@ -2157,7 +2610,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>154</v>
       </c>
@@ -2171,7 +2624,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>212</v>
       </c>
@@ -2185,7 +2638,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>213</v>
       </c>
@@ -2198,8 +2651,11 @@
       <c r="F62" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>214</v>
       </c>
@@ -2212,8 +2668,11 @@
       <c r="F64" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>215</v>
       </c>
@@ -2226,8 +2685,11 @@
       <c r="F65" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>216</v>
       </c>
@@ -2241,7 +2703,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>217</v>
       </c>
@@ -2255,7 +2717,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>218</v>
       </c>
@@ -2269,7 +2731,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>219</v>
       </c>
@@ -2282,8 +2744,11 @@
       <c r="F69" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>220</v>
       </c>
@@ -2293,11 +2758,17 @@
       <c r="C70" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>221</v>
       </c>
@@ -2311,7 +2782,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -2324,8 +2795,11 @@
       <c r="F72" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>223</v>
       </c>
@@ -2335,11 +2809,20 @@
       <c r="C73" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="D73" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -2353,7 +2836,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -2366,8 +2849,11 @@
       <c r="F75" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>226</v>
       </c>
@@ -2381,7 +2867,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>227</v>
       </c>
@@ -2394,8 +2880,11 @@
       <c r="F77" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>228</v>
       </c>
@@ -2409,7 +2898,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>229</v>
       </c>
@@ -2423,7 +2912,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>230</v>
       </c>
@@ -2437,7 +2926,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>231</v>
       </c>
@@ -2451,7 +2940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>232</v>
       </c>
@@ -2465,7 +2954,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>233</v>
       </c>
@@ -2479,7 +2968,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>234</v>
       </c>
@@ -2493,7 +2982,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>235</v>
       </c>
@@ -2506,8 +2995,11 @@
       <c r="F85" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>236</v>
       </c>
@@ -2521,7 +3013,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>237</v>
       </c>
@@ -2533,6 +3025,556 @@
       </c>
       <c r="F87" s="1" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Down1\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5008DB-7979-4D77-AC39-A23E9D6CA6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6DE5F3-DFD5-4ED0-ADA8-FA948A457462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="1275" windowWidth="17385" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="395">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1401,6 +1401,91 @@
   </si>
   <si>
     <t>124</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200513</t>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供销大集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰达股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保变电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>300674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇信科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波联合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
   </si>
 </sst>
 </file>
@@ -1726,11 +1811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F135" sqref="F135:G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1823,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1760,8 +1845,11 @@
       <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1775,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1789,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1803,7 +1891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1817,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1851,7 +1939,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1865,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1879,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1893,7 +1981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1907,7 +1995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1921,7 +2009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1935,7 +2023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,7 +2037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1963,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1977,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1991,7 +2079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2005,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -2019,7 +2107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -2033,7 +2121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2047,7 +2135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2061,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2075,7 +2163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -2088,8 +2176,11 @@
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -2103,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -2117,7 +2208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2131,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2145,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -2159,7 +2250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -2173,7 +2264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
@@ -2190,7 +2281,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>106</v>
       </c>
@@ -2204,7 +2295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
@@ -2218,7 +2309,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
@@ -2238,7 +2329,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -2252,7 +2343,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -2266,7 +2357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
@@ -2283,7 +2374,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
@@ -2297,7 +2388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -2311,7 +2402,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
@@ -2331,7 +2422,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -2344,8 +2435,11 @@
       <c r="E42" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
@@ -2365,7 +2459,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
@@ -2379,7 +2473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -2393,7 +2487,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>119</v>
       </c>
@@ -2407,7 +2501,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -2426,8 +2520,11 @@
       <c r="G47" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
@@ -2441,7 +2538,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -2460,8 +2557,11 @@
       <c r="G49" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -2475,7 +2575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
@@ -2489,7 +2589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
@@ -2503,7 +2603,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>134</v>
       </c>
@@ -2517,7 +2617,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
@@ -2531,7 +2631,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>138</v>
       </c>
@@ -2553,8 +2653,11 @@
       <c r="G55" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>142</v>
       </c>
@@ -2568,7 +2671,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>148</v>
       </c>
@@ -2582,7 +2685,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>150</v>
       </c>
@@ -2596,7 +2699,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>151</v>
       </c>
@@ -2610,7 +2713,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>154</v>
       </c>
@@ -2624,7 +2727,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>212</v>
       </c>
@@ -2638,7 +2741,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>213</v>
       </c>
@@ -2655,7 +2758,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>214</v>
       </c>
@@ -2672,7 +2775,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>215</v>
       </c>
@@ -2689,7 +2792,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>216</v>
       </c>
@@ -2703,7 +2806,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>217</v>
       </c>
@@ -2717,7 +2820,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>218</v>
       </c>
@@ -2731,7 +2834,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>219</v>
       </c>
@@ -2748,7 +2851,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>220</v>
       </c>
@@ -2768,7 +2871,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>221</v>
       </c>
@@ -2782,7 +2885,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -2799,7 +2902,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>223</v>
       </c>
@@ -2822,7 +2925,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -2836,7 +2939,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -2852,8 +2955,11 @@
       <c r="G75" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>226</v>
       </c>
@@ -2867,7 +2973,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>227</v>
       </c>
@@ -2884,7 +2990,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>228</v>
       </c>
@@ -2898,7 +3004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>229</v>
       </c>
@@ -2912,7 +3018,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>230</v>
       </c>
@@ -3139,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>288</v>
       </c>
@@ -3153,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>289</v>
       </c>
@@ -3167,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>290</v>
       </c>
@@ -3181,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>299</v>
       </c>
@@ -3195,7 +3301,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>300</v>
       </c>
@@ -3209,7 +3315,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>301</v>
       </c>
@@ -3223,7 +3329,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>302</v>
       </c>
@@ -3237,7 +3343,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>331</v>
       </c>
@@ -3251,7 +3357,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>332</v>
       </c>
@@ -3264,8 +3370,11 @@
       <c r="G105" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>333</v>
       </c>
@@ -3282,7 +3391,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>334</v>
       </c>
@@ -3296,7 +3405,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>335</v>
       </c>
@@ -3310,7 +3419,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>336</v>
       </c>
@@ -3324,7 +3433,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>337</v>
       </c>
@@ -3338,7 +3447,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>338</v>
       </c>
@@ -3355,7 +3464,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>339</v>
       </c>
@@ -3368,8 +3477,11 @@
       <c r="G112" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>340</v>
       </c>
@@ -3383,7 +3495,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>341</v>
       </c>
@@ -3397,7 +3509,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>342</v>
       </c>
@@ -3411,7 +3523,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>343</v>
       </c>
@@ -3425,7 +3537,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>344</v>
       </c>
@@ -3448,7 +3560,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>363</v>
       </c>
@@ -3462,7 +3574,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>364</v>
       </c>
@@ -3476,7 +3588,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>365</v>
       </c>
@@ -3490,7 +3602,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>366</v>
       </c>
@@ -3504,7 +3616,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>367</v>
       </c>
@@ -3518,7 +3630,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>368</v>
       </c>
@@ -3532,7 +3644,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>369</v>
       </c>
@@ -3546,7 +3658,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>370</v>
       </c>
@@ -3562,8 +3674,11 @@
       <c r="G125" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>371</v>
       </c>
@@ -3575,6 +3690,104 @@
       </c>
       <c r="G126" s="1" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Down1\stocka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6DE5F3-DFD5-4ED0-ADA8-FA948A457462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB266F94-50A0-45A1-A8AA-12E665E71DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="1275" windowWidth="17385" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="1035" windowWidth="17520" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="546">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,207 +353,1146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>002536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>603039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>泛微网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>伊之密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天风证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天齐锂业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>002248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东数控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>002980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华盛昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>20200511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚飞广电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>002863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>601388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>安彩高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今飞凯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡球资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金现代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通达电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新赛股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新农开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万泰生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景津环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天迈科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏奥传感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元隆雅图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神马电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正川股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲林格尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派瑞股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世名科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京北方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北摩高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯瑞达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾可蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未名医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海天洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴研科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建科机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万通智控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金圆股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002524</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾照光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>飞龙股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金科文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三川智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波建工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博天环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">广电运通 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇中股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯撒文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国民技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华培动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威帝股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光正集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青松建化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易成新能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚太股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>603696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌红科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安记食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中元股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美邦服饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三友医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N新产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦鸡股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御家汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃华医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新化股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东易日盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>300821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东岳硅材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈克生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震安科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>300406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九强生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮阿诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦洁股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫光国微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大通燃气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明德生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一拖股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模塑科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚天科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道道全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国网信通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>南卫股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉峰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>300022</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300459</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300364</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300371</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300831</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>603039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>泛微网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>伊之密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天风证券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002466</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天齐锂业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>002248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华东数控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>002980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华盛昌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>兴瑞科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金健米业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百洋股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝光股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威创股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省广集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三房巷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
   </si>
   <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>20200511</t>
+    <t>20200513</t>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供销大集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰达股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保变电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>300674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇信科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波联合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普门科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -561,497 +1500,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚飞广电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>002863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>601388</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>安彩高科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今飞凯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怡球资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金现代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通达电气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600540</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新赛股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新农开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科大智能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603392</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万泰生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603279</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景津环保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天迈科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300507</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏奥传感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002878</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元隆雅图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神马电力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603976</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正川股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603226</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菲林格尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>派瑞股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300522</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世名科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京北方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北摩高科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯瑞达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300816</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾可蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002581</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未名医药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海天洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴研科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建科机械</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万通智控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000546</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金圆股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002524</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002284</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾照光电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002291</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>飞龙股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金科文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三川智慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波建工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博天环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中电电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">广电运通 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇中股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯撒文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国民技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华培动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东风科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威帝股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光正集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青松建化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易成新能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚太股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300832</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>688085</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002269</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>603696</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昌红科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安记食品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中元股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美邦服饰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三友医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N新产业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300798</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦鸡股份</t>
+    <t>688588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌志软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕世生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超华科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>300222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇嘉时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000697</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鸥住工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼石航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思创医惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光力科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丽家族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺利办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新诺维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新乳业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯利泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天味食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇信技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆百货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1063,362 +1649,225 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃华医药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新化股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603867</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东易日盛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>300821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东岳硅材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300463</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迈克生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300825</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿尔特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震安科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>300406</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九强生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮阿诺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦洁股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002397</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫光国微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000593</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大通燃气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明德生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002932</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一拖股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉峰汽车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603982</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模塑科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楚天科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300358</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道道全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002852</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国网信通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵州电力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>南卫股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉峰科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴瑞科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002937</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金健米业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百洋股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002696</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝光股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600379</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威创股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省广集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三房巷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600370</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200513</t>
-  </si>
-  <si>
-    <t>125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000564</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供销大集</t>
+    <t>300595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧普康视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603697</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有友食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名臣健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必创科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商积余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司太立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603855</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华荣股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝泰隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香溢融通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壹网壹创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永福股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常山药业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和顺电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002886</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃特股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国农科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日辰股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩蒂股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300677</t>
+  </si>
+  <si>
+    <t>英科医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603661</t>
+  </si>
+  <si>
+    <t>恒林股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙钢股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">长城科技 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华辰装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002429</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆驰股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立霸股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000973</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">佛塑科技 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京新百</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉美包装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1430,62 +1879,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>600550</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保变电气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>300674</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇信科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波联合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300785</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值得买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603613</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国联股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
+    <t>300061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗天科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">天舟文化 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
   </si>
 </sst>
 </file>
@@ -1508,12 +2061,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1528,9 +2087,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1811,11 +2372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F135" sqref="F135:G135"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1837,16 +2398,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1932,11 +2493,17 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2177,7 +2744,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2215,11 +2782,14 @@
       <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2266,30 +2836,30 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>407</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>86</v>
@@ -2297,13 +2867,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>86</v>
@@ -2311,33 +2881,36 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>86</v>
@@ -2345,13 +2918,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>86</v>
@@ -2359,30 +2932,30 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>86</v>
@@ -2390,13 +2963,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>86</v>
@@ -2404,70 +2977,76 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>86</v>
@@ -2475,13 +3054,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>86</v>
@@ -2489,13 +3068,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>86</v>
@@ -2503,36 +3082,36 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>182</v>
+        <v>101</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>86</v>
@@ -2540,36 +3119,36 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>86</v>
@@ -2577,13 +3156,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>86</v>
@@ -2591,13 +3170,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>86</v>
@@ -2605,13 +3184,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>86</v>
@@ -2619,13 +3198,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>86</v>
@@ -2633,613 +3212,637 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>167</v>
+      <c r="D64" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="F74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="F77" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="F81" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="F82" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="F83" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="F84" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="F85" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="F86" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="B87" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="F87" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>5</v>
@@ -3247,13 +3850,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>5</v>
@@ -3261,13 +3864,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>5</v>
@@ -3275,519 +3878,1231 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C99" s="1" t="s">
         <v>286</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H99" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="G100" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="G101" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="G102" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="G104" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C105" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="C105" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="G105" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G107" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="G108" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="G110" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C112" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="C112" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="G112" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="G121" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="G124" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="H128" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="H129" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="H130" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="H131" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="H132" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="H133" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>372</v>
+      <c r="B136" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB266F94-50A0-45A1-A8AA-12E665E71DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27512DA-8754-43B8-9801-CBAF8B2AF68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="1035" windowWidth="17520" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="606">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1641,14 +1641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御家汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>300595</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1942,9 +1934,6 @@
     <t>148</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -2039,6 +2028,245 @@
   </si>
   <si>
     <t>181</t>
+  </si>
+  <si>
+    <t>20200514</t>
+  </si>
+  <si>
+    <t>联络互动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>688365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光云科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600532</t>
+  </si>
+  <si>
+    <t>宏达矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞亚达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强生控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002204</t>
+  </si>
+  <si>
+    <t>大连重工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>300485</t>
+  </si>
+  <si>
+    <t>赛升药业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>603929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚翔集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日发精机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000636</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风华高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300418</t>
+  </si>
+  <si>
+    <t>昆仑万维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷科防务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智度股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300489</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中飞股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深大通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中简科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300562</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐心医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002553</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来伊份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德宏股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金田铜业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京威股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉夏贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2372,11 +2600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2384,7 +2612,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,8 +2637,11 @@
       <c r="H1" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2424,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2437,8 +2668,11 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2452,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2466,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2480,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2505,8 +2739,11 @@
       <c r="H7" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2520,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2534,7 +2771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -2548,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2562,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2575,8 +2812,11 @@
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2590,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2604,7 +2844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2618,7 +2858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -2851,7 +3091,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -2865,7 +3105,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
@@ -2879,14 +3119,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2901,8 +3141,11 @@
       <c r="H35" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -2916,7 +3159,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
@@ -2930,7 +3173,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -2947,7 +3190,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -2961,7 +3204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2975,7 +3218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -2997,8 +3240,11 @@
       <c r="H41" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>114</v>
       </c>
@@ -3015,7 +3261,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -3038,7 +3284,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -3052,7 +3298,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
@@ -3066,7 +3312,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
@@ -3080,7 +3326,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -3102,8 +3348,11 @@
       <c r="H47" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -3117,7 +3366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -3139,8 +3388,11 @@
       <c r="H49" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -3154,7 +3406,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -3168,7 +3420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -3182,7 +3434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -3196,7 +3448,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -3210,7 +3462,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -3236,7 +3488,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -3250,7 +3502,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>147</v>
       </c>
@@ -3264,7 +3516,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -3278,7 +3530,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>150</v>
       </c>
@@ -3292,7 +3544,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>153</v>
       </c>
@@ -3306,7 +3558,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>211</v>
       </c>
@@ -3320,7 +3572,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>212</v>
       </c>
@@ -3337,7 +3589,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
@@ -3362,8 +3614,11 @@
       <c r="H64" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
@@ -3379,8 +3634,11 @@
       <c r="G65" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
@@ -3394,7 +3652,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>216</v>
       </c>
@@ -3408,7 +3666,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>217</v>
       </c>
@@ -3422,7 +3680,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>218</v>
       </c>
@@ -3439,7 +3697,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>219</v>
       </c>
@@ -3462,7 +3720,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>220</v>
       </c>
@@ -3476,7 +3734,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -3493,7 +3751,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>222</v>
       </c>
@@ -3518,8 +3776,11 @@
       <c r="H73" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>223</v>
       </c>
@@ -3533,7 +3794,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -3553,7 +3814,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>225</v>
       </c>
@@ -3567,7 +3828,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>226</v>
       </c>
@@ -3584,7 +3845,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>227</v>
       </c>
@@ -3598,7 +3859,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>228</v>
       </c>
@@ -3612,7 +3873,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>229</v>
       </c>
@@ -3626,7 +3887,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
@@ -3640,7 +3901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
@@ -3654,7 +3915,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -3668,7 +3929,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>233</v>
       </c>
@@ -3682,7 +3943,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>234</v>
       </c>
@@ -3698,8 +3959,11 @@
       <c r="G85" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>235</v>
       </c>
@@ -3713,7 +3977,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>236</v>
       </c>
@@ -3727,7 +3991,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>256</v>
       </c>
@@ -3744,7 +4008,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>261</v>
       </c>
@@ -3761,7 +4025,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>262</v>
       </c>
@@ -3775,7 +4039,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>263</v>
       </c>
@@ -3789,14 +4053,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>269</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -3805,8 +4069,11 @@
       <c r="H93" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>266</v>
       </c>
@@ -3820,7 +4087,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>278</v>
       </c>
@@ -3834,21 +4101,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>277</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H96" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>287</v>
       </c>
@@ -3862,7 +4135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>288</v>
       </c>
@@ -3876,7 +4149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>289</v>
       </c>
@@ -3893,7 +4166,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>298</v>
       </c>
@@ -3907,7 +4180,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>299</v>
       </c>
@@ -3921,7 +4194,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>300</v>
       </c>
@@ -3935,7 +4208,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>301</v>
       </c>
@@ -3949,7 +4222,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>330</v>
       </c>
@@ -3963,7 +4236,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>331</v>
       </c>
@@ -3980,7 +4253,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>332</v>
       </c>
@@ -3999,8 +4272,11 @@
       <c r="H106" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>333</v>
       </c>
@@ -4014,7 +4290,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>334</v>
       </c>
@@ -4028,7 +4304,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>335</v>
       </c>
@@ -4042,7 +4318,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>336</v>
       </c>
@@ -4056,7 +4332,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>337</v>
       </c>
@@ -4073,7 +4349,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>338</v>
       </c>
@@ -4089,8 +4365,11 @@
       <c r="H112" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>339</v>
       </c>
@@ -4104,7 +4383,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>340</v>
       </c>
@@ -4118,7 +4397,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>341</v>
       </c>
@@ -4132,7 +4411,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>342</v>
       </c>
@@ -4146,7 +4425,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>343</v>
       </c>
@@ -4171,8 +4450,11 @@
       <c r="H117" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -4186,7 +4468,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>363</v>
       </c>
@@ -4202,8 +4484,11 @@
       <c r="H119" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>364</v>
       </c>
@@ -4217,7 +4502,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -4231,7 +4516,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>366</v>
       </c>
@@ -4245,7 +4530,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>367</v>
       </c>
@@ -4259,7 +4544,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>368</v>
       </c>
@@ -4273,7 +4558,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>369</v>
       </c>
@@ -4293,7 +4578,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>370</v>
       </c>
@@ -4307,7 +4592,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>373</v>
       </c>
@@ -4320,8 +4605,11 @@
       <c r="H128" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>380</v>
       </c>
@@ -4335,7 +4623,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>381</v>
       </c>
@@ -4349,7 +4637,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>390</v>
       </c>
@@ -4363,7 +4651,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>391</v>
       </c>
@@ -4377,7 +4665,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>392</v>
       </c>
@@ -4391,7 +4679,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>393</v>
       </c>
@@ -4405,7 +4693,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>394</v>
       </c>
@@ -4419,7 +4707,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>404</v>
       </c>
@@ -4433,7 +4721,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>405</v>
       </c>
@@ -4447,7 +4735,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>406</v>
       </c>
@@ -4461,9 +4749,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>408</v>
@@ -4475,9 +4763,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>412</v>
@@ -4489,9 +4777,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>410</v>
@@ -4502,10 +4790,13 @@
       <c r="H142" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>414</v>
@@ -4517,9 +4808,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>416</v>
@@ -4531,9 +4822,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>418</v>
@@ -4545,9 +4836,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>420</v>
@@ -4559,9 +4850,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>422</v>
@@ -4573,9 +4864,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>424</v>
@@ -4587,9 +4878,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>426</v>
@@ -4601,9 +4892,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>428</v>
@@ -4615,9 +4906,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>430</v>
@@ -4629,9 +4920,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>432</v>
@@ -4643,37 +4934,37 @@
         <v>397</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>435</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>437</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>438</v>
@@ -4685,37 +4976,37 @@
         <v>397</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="3" t="s">
         <v>441</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="1" t="s">
         <v>443</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>444</v>
@@ -4727,9 +5018,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>446</v>
@@ -4740,10 +5031,13 @@
       <c r="H159" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>448</v>
@@ -4755,9 +5049,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>450</v>
@@ -4769,9 +5063,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>452</v>
@@ -4783,37 +5077,40 @@
         <v>397</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="3" t="s">
         <v>455</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>457</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>458</v>
@@ -4825,9 +5122,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>460</v>
@@ -4839,9 +5136,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>462</v>
@@ -4853,23 +5150,23 @@
         <v>397</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>465</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>466</v>
@@ -4881,23 +5178,23 @@
         <v>397</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>469</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>470</v>
@@ -4909,9 +5206,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>472</v>
@@ -4922,38 +5219,41 @@
       <c r="H172" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>478</v>
@@ -4965,37 +5265,37 @@
         <v>397</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>481</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>483</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>484</v>
@@ -5007,9 +5307,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>486</v>
@@ -5021,9 +5321,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>488</v>
@@ -5034,10 +5334,13 @@
       <c r="H180" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>490</v>
@@ -5049,9 +5352,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>492</v>
@@ -5063,9 +5366,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>494</v>
@@ -5077,9 +5380,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>496</v>
@@ -5091,18 +5394,317 @@
         <v>397</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>397</v>
+      <c r="B186" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B203" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B208" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27512DA-8754-43B8-9801-CBAF8B2AF68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D554C-184F-4D06-A332-798F050B56B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="1065" windowWidth="17520" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="739">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2267,6 +2267,482 @@
   <si>
     <t>拉夏贝尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200515</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当虹科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰禾集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华鹏飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部牧业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤丰控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华微电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南纺股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>300293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝英装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒基达鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱绅通灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云赛智联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏雷利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香梨股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">聚光科技 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥翔药业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏辉果蔬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000158</t>
+  </si>
+  <si>
+    <t>常山北明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德方纳米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603881</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600962</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国投中鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南城投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣邦股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300263</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新莱应材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓程科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和胜股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越秀金控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电声股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威派格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双林生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共达电声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山河药铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州三力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦格米特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华金资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛金王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
   </si>
 </sst>
 </file>
@@ -2600,11 +3076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:J250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L196" sqref="L196"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2612,7 +3088,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2640,8 +3116,11 @@
       <c r="I1" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2655,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2672,7 +3151,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2686,7 +3165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2700,7 +3179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2714,7 +3193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2743,7 +3222,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +3236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +3250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -2785,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2816,7 +3295,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2830,7 +3309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2844,7 +3323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,7 +3337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -3091,7 +3570,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -3105,7 +3584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3119,7 +3598,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -3144,8 +3623,11 @@
       <c r="I35" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3159,7 +3641,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
@@ -3173,7 +3655,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -3190,7 +3672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -3204,7 +3686,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -3218,7 +3700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -3243,8 +3725,11 @@
       <c r="I41" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>114</v>
       </c>
@@ -3261,7 +3746,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -3283,8 +3768,11 @@
       <c r="H43" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -3298,7 +3786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
@@ -3312,7 +3800,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
@@ -3326,7 +3814,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -3351,8 +3839,11 @@
       <c r="I47" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -3366,7 +3857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -3376,6 +3867,9 @@
       <c r="C49" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>607</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>86</v>
       </c>
@@ -3391,8 +3885,11 @@
       <c r="I49" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -3406,7 +3903,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -3420,7 +3917,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -3434,7 +3931,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -3448,7 +3945,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -3462,7 +3959,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -3488,7 +3985,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -3502,7 +3999,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>147</v>
       </c>
@@ -3516,7 +4013,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -3530,7 +4027,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>150</v>
       </c>
@@ -3544,7 +4041,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>153</v>
       </c>
@@ -3558,7 +4055,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>211</v>
       </c>
@@ -3572,7 +4069,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>212</v>
       </c>
@@ -3589,7 +4086,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
@@ -3617,8 +4114,11 @@
       <c r="I64" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
@@ -3638,7 +4138,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
@@ -3652,7 +4152,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>216</v>
       </c>
@@ -3666,7 +4166,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>217</v>
       </c>
@@ -3680,7 +4180,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>218</v>
       </c>
@@ -3697,7 +4197,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>219</v>
       </c>
@@ -3720,7 +4220,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>220</v>
       </c>
@@ -3734,7 +4234,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -3751,7 +4251,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>222</v>
       </c>
@@ -3779,8 +4279,11 @@
       <c r="I73" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>223</v>
       </c>
@@ -3793,8 +4296,11 @@
       <c r="F74" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -3813,8 +4319,11 @@
       <c r="H75" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>225</v>
       </c>
@@ -3828,7 +4337,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>226</v>
       </c>
@@ -3845,7 +4354,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>227</v>
       </c>
@@ -3859,7 +4368,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>228</v>
       </c>
@@ -3873,7 +4382,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>229</v>
       </c>
@@ -3887,7 +4396,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
@@ -3901,7 +4410,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
@@ -3915,7 +4424,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -3929,7 +4438,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>233</v>
       </c>
@@ -3943,7 +4452,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>234</v>
       </c>
@@ -3963,7 +4472,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>235</v>
       </c>
@@ -3977,7 +4486,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>236</v>
       </c>
@@ -3991,7 +4500,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>256</v>
       </c>
@@ -4008,7 +4517,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>261</v>
       </c>
@@ -4025,7 +4534,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>262</v>
       </c>
@@ -4039,7 +4548,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>263</v>
       </c>
@@ -4053,7 +4562,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>264</v>
       </c>
@@ -4072,8 +4581,11 @@
       <c r="I93" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>266</v>
       </c>
@@ -4087,7 +4599,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>278</v>
       </c>
@@ -4101,7 +4613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>279</v>
       </c>
@@ -4120,8 +4632,11 @@
       <c r="I96" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>287</v>
       </c>
@@ -4135,7 +4650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>288</v>
       </c>
@@ -4149,7 +4664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>289</v>
       </c>
@@ -4166,7 +4681,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>298</v>
       </c>
@@ -4180,7 +4695,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>299</v>
       </c>
@@ -4193,8 +4708,11 @@
       <c r="G101" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>300</v>
       </c>
@@ -4208,7 +4726,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>301</v>
       </c>
@@ -4222,7 +4740,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>330</v>
       </c>
@@ -4236,7 +4754,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>331</v>
       </c>
@@ -4253,7 +4771,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>332</v>
       </c>
@@ -4275,8 +4793,11 @@
       <c r="I106" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>333</v>
       </c>
@@ -4290,7 +4811,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>334</v>
       </c>
@@ -4304,7 +4825,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>335</v>
       </c>
@@ -4318,7 +4839,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>336</v>
       </c>
@@ -4332,7 +4853,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>337</v>
       </c>
@@ -4349,7 +4870,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>338</v>
       </c>
@@ -4369,7 +4890,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>339</v>
       </c>
@@ -4383,7 +4904,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>340</v>
       </c>
@@ -4397,7 +4918,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>341</v>
       </c>
@@ -4411,7 +4932,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>342</v>
       </c>
@@ -4425,7 +4946,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>343</v>
       </c>
@@ -4454,7 +4975,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -4468,7 +4989,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>363</v>
       </c>
@@ -4488,7 +5009,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>364</v>
       </c>
@@ -4502,7 +5023,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -4516,7 +5037,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>366</v>
       </c>
@@ -4530,7 +5051,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>367</v>
       </c>
@@ -4544,7 +5065,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>368</v>
       </c>
@@ -4558,7 +5079,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>369</v>
       </c>
@@ -4577,8 +5098,11 @@
       <c r="H125" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>370</v>
       </c>
@@ -4592,7 +5116,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>373</v>
       </c>
@@ -5049,7 +5573,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>519</v>
       </c>
@@ -5063,7 +5587,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>520</v>
       </c>
@@ -5077,7 +5601,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>521</v>
       </c>
@@ -5091,7 +5615,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>522</v>
       </c>
@@ -5107,8 +5631,11 @@
       <c r="I164" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>523</v>
       </c>
@@ -5122,7 +5649,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>524</v>
       </c>
@@ -5136,7 +5663,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>525</v>
       </c>
@@ -5150,7 +5677,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>526</v>
       </c>
@@ -5164,7 +5691,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>527</v>
       </c>
@@ -5178,7 +5705,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>528</v>
       </c>
@@ -5192,7 +5719,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>529</v>
       </c>
@@ -5206,7 +5733,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>530</v>
       </c>
@@ -5223,7 +5750,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -5237,7 +5764,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>532</v>
       </c>
@@ -5251,7 +5778,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>533</v>
       </c>
@@ -5265,7 +5792,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>534</v>
       </c>
@@ -5279,7 +5806,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>535</v>
       </c>
@@ -5293,7 +5820,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>536</v>
       </c>
@@ -5307,7 +5834,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>537</v>
       </c>
@@ -5321,7 +5848,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>538</v>
       </c>
@@ -5338,7 +5865,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>539</v>
       </c>
@@ -5352,21 +5879,24 @@
         <v>397</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>493</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I182" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>541</v>
       </c>
@@ -5380,7 +5910,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>542</v>
       </c>
@@ -5394,7 +5924,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>545</v>
       </c>
@@ -5408,21 +5938,24 @@
         <v>547</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>549</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>563</v>
       </c>
@@ -5435,8 +5968,11 @@
       <c r="I188" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>564</v>
       </c>
@@ -5450,7 +5986,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>565</v>
       </c>
@@ -5464,7 +6000,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>566</v>
       </c>
@@ -5478,7 +6014,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>567</v>
       </c>
@@ -5491,8 +6027,11 @@
       <c r="I192" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>568</v>
       </c>
@@ -5505,8 +6044,11 @@
       <c r="I193" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>571</v>
       </c>
@@ -5520,18 +6062,27 @@
         <v>547</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>609</v>
+      </c>
       <c r="B195" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>573</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>610</v>
+      </c>
       <c r="B196" s="1" t="s">
         <v>574</v>
       </c>
@@ -5542,7 +6093,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="B197" s="1" t="s">
         <v>576</v>
       </c>
@@ -5553,7 +6107,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="B198" s="1" t="s">
         <v>578</v>
       </c>
@@ -5564,7 +6121,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>613</v>
+      </c>
       <c r="B199" s="1" t="s">
         <v>580</v>
       </c>
@@ -5575,7 +6135,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>614</v>
+      </c>
       <c r="B200" s="1" t="s">
         <v>582</v>
       </c>
@@ -5585,19 +6148,28 @@
       <c r="I200" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>615</v>
+      </c>
       <c r="B201" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>585</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>616</v>
+      </c>
       <c r="B202" s="1" t="s">
         <v>586</v>
       </c>
@@ -5608,7 +6180,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>617</v>
+      </c>
       <c r="B203" s="1" t="s">
         <v>588</v>
       </c>
@@ -5619,7 +6194,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="B204" s="1" t="s">
         <v>590</v>
       </c>
@@ -5630,7 +6208,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="B205" s="1" t="s">
         <v>592</v>
       </c>
@@ -5641,7 +6222,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>620</v>
+      </c>
       <c r="B206" s="1" t="s">
         <v>594</v>
       </c>
@@ -5652,7 +6236,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>621</v>
+      </c>
       <c r="B207" s="1" t="s">
         <v>596</v>
       </c>
@@ -5663,7 +6250,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="B208" s="1" t="s">
         <v>598</v>
       </c>
@@ -5674,7 +6264,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="B209" s="1" t="s">
         <v>600</v>
       </c>
@@ -5685,7 +6278,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>624</v>
+      </c>
       <c r="B210" s="1" t="s">
         <v>602</v>
       </c>
@@ -5696,7 +6292,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>625</v>
+      </c>
       <c r="B211" s="1" t="s">
         <v>604</v>
       </c>
@@ -5705,6 +6304,556 @@
       </c>
       <c r="I211" s="1" t="s">
         <v>547</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Down1\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D554C-184F-4D06-A332-798F050B56B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D569A0C4-976F-46A7-9BAE-8D984E47B457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="1065" windowWidth="17520" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="675" windowWidth="17385" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="769">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2743,6 +2743,111 @@
   </si>
   <si>
     <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>688598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N金博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>688566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N吉贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200516</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N豪美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥福环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川润股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>000584</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天润乳业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3076,11 +3181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J250"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3088,7 +3193,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3119,8 +3224,11 @@
       <c r="J1" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3134,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3151,7 +3259,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3165,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3179,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3193,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3330,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3236,7 +3344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3250,7 +3358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -3264,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -3278,7 +3386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -3295,7 +3403,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -3309,7 +3417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3323,7 +3431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3337,7 +3445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -3570,7 +3678,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -3584,7 +3692,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3598,7 +3706,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -3626,8 +3734,11 @@
       <c r="J35" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3641,7 +3752,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
@@ -3655,7 +3766,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -3672,7 +3783,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -3686,7 +3797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -3700,7 +3811,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -3729,7 +3840,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>114</v>
       </c>
@@ -3746,7 +3857,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -3772,7 +3883,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -3786,7 +3897,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
@@ -3800,7 +3911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
@@ -3814,7 +3925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -3843,7 +3954,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -5806,7 +5917,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>535</v>
       </c>
@@ -5820,7 +5931,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>536</v>
       </c>
@@ -5834,7 +5945,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>537</v>
       </c>
@@ -5848,7 +5959,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>538</v>
       </c>
@@ -5865,7 +5976,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>539</v>
       </c>
@@ -5879,7 +5990,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>540</v>
       </c>
@@ -5896,7 +6007,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>541</v>
       </c>
@@ -5910,7 +6021,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>542</v>
       </c>
@@ -5924,7 +6035,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>545</v>
       </c>
@@ -5938,7 +6049,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>550</v>
       </c>
@@ -5955,7 +6066,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>563</v>
       </c>
@@ -5972,7 +6083,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>564</v>
       </c>
@@ -5986,7 +6097,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>565</v>
       </c>
@@ -6000,7 +6111,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>566</v>
       </c>
@@ -6014,7 +6125,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>567</v>
       </c>
@@ -6029,6 +6140,9 @@
       </c>
       <c r="J192" s="1" t="s">
         <v>607</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -6698,7 +6812,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>729</v>
       </c>
@@ -6712,7 +6826,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>730</v>
       </c>
@@ -6726,7 +6840,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>731</v>
       </c>
@@ -6740,7 +6854,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>732</v>
       </c>
@@ -6754,7 +6868,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>733</v>
       </c>
@@ -6786,7 +6900,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>734</v>
       </c>
@@ -6800,7 +6914,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>735</v>
       </c>
@@ -6814,7 +6928,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>736</v>
       </c>
@@ -6828,7 +6942,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>737</v>
       </c>
@@ -6842,7 +6956,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>738</v>
       </c>
@@ -6854,6 +6968,139 @@
       </c>
       <c r="J250" s="1" t="s">
         <v>607</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Down1\stocka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D569A0C4-976F-46A7-9BAE-8D984E47B457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9D82CA-59C6-469E-9D9C-AE8E66487345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="675" windowWidth="17385" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="874">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2445,10 +2445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>600560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>香梨股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2780,9 +2776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200516</t>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2847,6 +2840,402 @@
   </si>
   <si>
     <t>天润乳业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华特气体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅本化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加加食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002858</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力盛赛车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众兴菌业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600391</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">航发科技 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓程科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久吾高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵研铂业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京聚隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中路股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒顺醋业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安达维尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300653</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正海生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三超新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部牧业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申通快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容大感光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>603680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今创集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>603985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒润股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑博设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申通地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五矿稀土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博云新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>300716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国立科技</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>600143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金发科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>002302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>北新路桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>600506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤峰黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>000848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承德露露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>300121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳谷华泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>600540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新赛股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>002742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三圣股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>新研股份</t>
+  </si>
+  <si>
+    <t>300159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>西部创业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000557</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2854,7 +3243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2868,6 +3257,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2896,11 +3292,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3181,11 +3578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K265"/>
+  <dimension ref="A1:K295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D246" sqref="D246"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F291" sqref="F291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3225,7 +3622,7 @@
         <v>606</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>749</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3735,7 +4132,7 @@
         <v>607</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3953,6 +4350,9 @@
       <c r="J47" s="1" t="s">
         <v>607</v>
       </c>
+      <c r="K47" s="1" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -3968,7 +4368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -4000,7 +4400,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -4014,7 +4414,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -4028,7 +4428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -4042,7 +4442,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -4056,7 +4456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -4070,7 +4470,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -4096,7 +4496,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -4110,7 +4510,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>147</v>
       </c>
@@ -4124,7 +4524,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -4138,7 +4538,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>150</v>
       </c>
@@ -4152,7 +4552,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>153</v>
       </c>
@@ -4166,7 +4566,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>211</v>
       </c>
@@ -4180,7 +4580,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>212</v>
       </c>
@@ -4196,8 +4596,16 @@
       <c r="G62" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
@@ -4228,8 +4636,11 @@
       <c r="J64" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
@@ -4249,7 +4660,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
@@ -4263,7 +4674,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>216</v>
       </c>
@@ -4277,7 +4688,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>217</v>
       </c>
@@ -4291,7 +4702,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>218</v>
       </c>
@@ -4308,7 +4719,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>219</v>
       </c>
@@ -4331,7 +4742,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>220</v>
       </c>
@@ -4345,7 +4756,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -4362,7 +4773,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>222</v>
       </c>
@@ -4393,15 +4804,18 @@
       <c r="J73" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -4410,8 +4824,11 @@
       <c r="J74" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -4434,7 +4851,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>225</v>
       </c>
@@ -4448,7 +4865,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>226</v>
       </c>
@@ -4465,7 +4882,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>227</v>
       </c>
@@ -4479,7 +4896,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>228</v>
       </c>
@@ -4493,7 +4910,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>229</v>
       </c>
@@ -4507,7 +4924,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
@@ -4521,7 +4938,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
@@ -4535,7 +4952,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -4549,7 +4966,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>233</v>
       </c>
@@ -4563,7 +4980,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>234</v>
       </c>
@@ -4583,7 +5000,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>235</v>
       </c>
@@ -4597,7 +5014,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>236</v>
       </c>
@@ -4611,7 +5028,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>256</v>
       </c>
@@ -4628,7 +5045,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>261</v>
       </c>
@@ -4645,7 +5062,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>262</v>
       </c>
@@ -4659,7 +5076,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>263</v>
       </c>
@@ -4673,7 +5090,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>264</v>
       </c>
@@ -4695,8 +5112,11 @@
       <c r="J93" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>266</v>
       </c>
@@ -4710,7 +5130,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>278</v>
       </c>
@@ -4724,7 +5144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>279</v>
       </c>
@@ -4747,7 +5167,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>287</v>
       </c>
@@ -4761,7 +5181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>288</v>
       </c>
@@ -4775,7 +5195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>289</v>
       </c>
@@ -4792,7 +5212,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>298</v>
       </c>
@@ -4806,7 +5226,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>299</v>
       </c>
@@ -4823,7 +5243,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>300</v>
       </c>
@@ -4837,7 +5257,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>301</v>
       </c>
@@ -4850,8 +5270,11 @@
       <c r="G103" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K103" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>330</v>
       </c>
@@ -4865,7 +5288,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>331</v>
       </c>
@@ -4882,14 +5305,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>306</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -4907,8 +5330,11 @@
       <c r="J106" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K106" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>333</v>
       </c>
@@ -4922,7 +5348,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>334</v>
       </c>
@@ -4936,7 +5362,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>335</v>
       </c>
@@ -4950,7 +5376,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>336</v>
       </c>
@@ -4964,7 +5390,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>337</v>
       </c>
@@ -4980,8 +5406,11 @@
       <c r="G111" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K111" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>338</v>
       </c>
@@ -5000,8 +5429,11 @@
       <c r="I112" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K112" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>339</v>
       </c>
@@ -5015,7 +5447,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>340</v>
       </c>
@@ -5029,7 +5461,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>341</v>
       </c>
@@ -5043,7 +5475,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>342</v>
       </c>
@@ -5057,7 +5489,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>343</v>
       </c>
@@ -5085,8 +5517,14 @@
       <c r="I117" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J117" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5100,7 +5538,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>363</v>
       </c>
@@ -5120,7 +5558,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>364</v>
       </c>
@@ -5134,7 +5572,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -5148,7 +5586,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>366</v>
       </c>
@@ -5162,7 +5600,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>367</v>
       </c>
@@ -5176,7 +5614,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>368</v>
       </c>
@@ -5190,7 +5628,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>369</v>
       </c>
@@ -5213,7 +5651,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>370</v>
       </c>
@@ -5227,7 +5665,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>373</v>
       </c>
@@ -5243,8 +5681,11 @@
       <c r="I128" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K128" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>380</v>
       </c>
@@ -5258,7 +5699,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>381</v>
       </c>
@@ -5272,7 +5713,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>390</v>
       </c>
@@ -5286,7 +5727,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>391</v>
       </c>
@@ -5300,7 +5741,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>392</v>
       </c>
@@ -5314,7 +5755,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>393</v>
       </c>
@@ -5328,7 +5769,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>394</v>
       </c>
@@ -5342,7 +5783,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>404</v>
       </c>
@@ -5356,7 +5797,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>405</v>
       </c>
@@ -5369,8 +5810,11 @@
       <c r="H138" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K138" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>406</v>
       </c>
@@ -5384,7 +5828,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>498</v>
       </c>
@@ -5398,7 +5842,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>499</v>
       </c>
@@ -5412,7 +5856,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>500</v>
       </c>
@@ -5428,8 +5872,11 @@
       <c r="I142" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K142" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>501</v>
       </c>
@@ -5443,7 +5890,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>502</v>
       </c>
@@ -5684,7 +6131,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>519</v>
       </c>
@@ -5698,7 +6145,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>520</v>
       </c>
@@ -5712,7 +6159,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>521</v>
       </c>
@@ -5726,7 +6173,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>522</v>
       </c>
@@ -5745,8 +6192,11 @@
       <c r="J164" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K164" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>523</v>
       </c>
@@ -5760,7 +6210,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>524</v>
       </c>
@@ -5774,7 +6224,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>525</v>
       </c>
@@ -5788,7 +6238,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>526</v>
       </c>
@@ -5802,7 +6252,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>527</v>
       </c>
@@ -5816,7 +6266,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>528</v>
       </c>
@@ -5830,7 +6280,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>529</v>
       </c>
@@ -5844,7 +6294,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>530</v>
       </c>
@@ -5861,7 +6311,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -5875,7 +6325,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>532</v>
       </c>
@@ -5889,7 +6339,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>533</v>
       </c>
@@ -5903,7 +6353,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>534</v>
       </c>
@@ -6065,6 +6515,9 @@
       <c r="J187" s="1" t="s">
         <v>607</v>
       </c>
+      <c r="K187" s="1" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
@@ -6142,17 +6595,17 @@
         <v>607</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>562</v>
       </c>
       <c r="I193" s="1" t="s">
@@ -6161,8 +6614,11 @@
       <c r="J193" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K193" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>571</v>
       </c>
@@ -6176,7 +6632,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>609</v>
       </c>
@@ -6192,8 +6648,11 @@
       <c r="J195" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K195" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>610</v>
       </c>
@@ -6207,7 +6666,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>611</v>
       </c>
@@ -6221,7 +6680,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>612</v>
       </c>
@@ -6235,7 +6694,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>613</v>
       </c>
@@ -6249,7 +6708,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>614</v>
       </c>
@@ -6265,8 +6724,11 @@
       <c r="J200" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K200" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>615</v>
       </c>
@@ -6280,7 +6742,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>616</v>
       </c>
@@ -6294,7 +6756,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>617</v>
       </c>
@@ -6308,7 +6770,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>618</v>
       </c>
@@ -6322,7 +6784,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>619</v>
       </c>
@@ -6336,7 +6798,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>620</v>
       </c>
@@ -6350,7 +6812,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>621</v>
       </c>
@@ -6364,7 +6826,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>622</v>
       </c>
@@ -6378,7 +6840,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>623</v>
       </c>
@@ -6391,8 +6853,11 @@
       <c r="I209" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K209" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>624</v>
       </c>
@@ -6406,7 +6871,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>625</v>
       </c>
@@ -6420,7 +6885,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>626</v>
       </c>
@@ -6434,7 +6899,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>640</v>
       </c>
@@ -6448,7 +6913,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>641</v>
       </c>
@@ -6461,8 +6926,11 @@
       <c r="J215" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K215" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>642</v>
       </c>
@@ -6476,7 +6944,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>643</v>
       </c>
@@ -6490,7 +6958,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>644</v>
       </c>
@@ -6504,7 +6972,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>645</v>
       </c>
@@ -6518,9 +6986,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>646</v>
@@ -6532,9 +7000,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>648</v>
@@ -6546,9 +7014,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>650</v>
@@ -6560,9 +7028,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>652</v>
@@ -6574,9 +7042,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>654</v>
@@ -6587,226 +7055,238 @@
       <c r="J224" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K224" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K225" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K227" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K236" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>607</v>
@@ -6814,13 +7294,13 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>607</v>
@@ -6828,27 +7308,30 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>607</v>
       </c>
+      <c r="K242" s="1" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>607</v>
@@ -6856,13 +7339,13 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>607</v>
@@ -6870,13 +7353,13 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>607</v>
@@ -6902,13 +7385,13 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>607</v>
@@ -6916,13 +7399,13 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>607</v>
@@ -6930,13 +7413,13 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>607</v>
@@ -6944,13 +7427,13 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>607</v>
@@ -6958,13 +7441,13 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>607</v>
@@ -6972,135 +7455,621 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="K252" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="K253" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="K254" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="K254" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>764</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A273" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="K287" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>769</v>
       </c>
     </row>
   </sheetData>

--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7C7E7-4DD1-41AF-B4DA-853B97EF17E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C983F6B2-E6B9-4891-91C6-55099E77B62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8835" yWindow="2340" windowWidth="17520" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20200521" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1207">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2492,14 +2493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300832</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新产业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>600962</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2676,9 +2669,6 @@
     <t>226</t>
   </si>
   <si>
-    <t>227</t>
-  </si>
-  <si>
     <t>228</t>
   </si>
   <si>
@@ -3920,6 +3910,576 @@
   </si>
   <si>
     <t>342</t>
+  </si>
+  <si>
+    <t>20200520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N浩洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭可科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次新电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>688318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次新软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>688005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容百科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>吉艾科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>多元金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城影视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传媒娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>000980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">众泰汽车 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>新能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江淮汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>601777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力帆股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银禧科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北新路桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林三金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600859</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王府井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证金持股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶科科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光伏江西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300787</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海能实业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能穿戴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002653</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海思科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药西藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>002055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得润电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿科力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风语筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲股转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰光学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通光线缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特高压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创元科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002873</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新天药业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当升科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>002532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新界泵业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠达卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山照明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东材科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津普林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧松德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重组电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华建集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002782</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可立克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱司凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀凯股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业雄安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城动漫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华讯方舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海租赁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3996,6 +4556,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>255943</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667DF66F-76D7-4028-AE64-67CFC94CEF04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9857143" cy="6380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217848</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>56351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D91E47C-F6BF-447D-A3F4-382CB5326847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="9819048" cy="6390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>208324</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63ECE2F6-AADF-4399-81F7-F4890145314B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13030200"/>
+          <a:ext cx="9809524" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4261,11 +4958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M349"/>
+  <dimension ref="A1:N392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M297" sqref="M297:M349"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D397" sqref="D397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4273,7 +4970,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4284,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4308,13 +5005,16 @@
         <v>605</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4328,7 +5028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4345,7 +5045,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4359,7 +5059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4373,7 +5073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4387,7 +5087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -4416,7 +5116,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4430,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -4444,7 +5144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -4458,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -4472,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -4489,7 +5189,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -4503,7 +5203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -4517,7 +5217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -4531,7 +5231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -4765,7 +5465,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -4779,7 +5479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
@@ -4793,7 +5493,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -4823,13 +5523,16 @@
         <v>606</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -4843,7 +5546,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
@@ -4857,7 +5560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -4874,7 +5577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -4888,7 +5591,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -4902,7 +5605,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -4931,7 +5634,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>114</v>
       </c>
@@ -4948,7 +5651,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -4974,7 +5677,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -4988,7 +5691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
@@ -5002,7 +5705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
@@ -5016,7 +5719,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -5046,13 +5749,13 @@
         <v>606</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -5066,7 +5769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -5098,10 +5801,10 @@
         <v>606</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -5115,7 +5818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -5129,7 +5832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -5143,7 +5846,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -5157,7 +5860,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -5171,7 +5874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -5197,10 +5900,10 @@
         <v>370</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -5214,7 +5917,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>147</v>
       </c>
@@ -5228,7 +5931,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -5242,7 +5945,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>150</v>
       </c>
@@ -5256,7 +5959,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>153</v>
       </c>
@@ -5270,7 +5973,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>211</v>
       </c>
@@ -5284,14 +5987,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -5301,15 +6004,18 @@
         <v>143</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L63" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
@@ -5320,7 +6026,7 @@
         <v>166</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>396</v>
@@ -5344,13 +6050,16 @@
         <v>606</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
@@ -5370,7 +6079,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
@@ -5384,7 +6093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>216</v>
       </c>
@@ -5398,7 +6107,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>217</v>
       </c>
@@ -5412,7 +6121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>218</v>
       </c>
@@ -5429,7 +6138,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>219</v>
       </c>
@@ -5452,8 +6161,11 @@
       <c r="I70" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>220</v>
       </c>
@@ -5467,7 +6179,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
@@ -5484,7 +6196,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>222</v>
       </c>
@@ -5495,7 +6207,7 @@
         <v>185</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>280</v>
@@ -5519,13 +6231,16 @@
         <v>606</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>223</v>
       </c>
@@ -5543,10 +6258,10 @@
         <v>606</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -5569,8 +6284,11 @@
       <c r="K75" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>225</v>
       </c>
@@ -5584,7 +6302,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>226</v>
       </c>
@@ -5601,7 +6319,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>227</v>
       </c>
@@ -5615,7 +6333,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>228</v>
       </c>
@@ -5629,7 +6347,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>229</v>
       </c>
@@ -5643,7 +6361,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
@@ -5657,7 +6375,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
@@ -5671,7 +6389,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -5685,7 +6403,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>233</v>
       </c>
@@ -5699,7 +6417,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>234</v>
       </c>
@@ -5718,8 +6436,11 @@
       <c r="J85" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>235</v>
       </c>
@@ -5733,7 +6454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>236</v>
       </c>
@@ -5747,7 +6468,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>256</v>
       </c>
@@ -5764,7 +6485,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>261</v>
       </c>
@@ -5781,7 +6502,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>262</v>
       </c>
@@ -5795,7 +6516,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>263</v>
       </c>
@@ -5809,7 +6530,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>264</v>
       </c>
@@ -5833,13 +6554,13 @@
         <v>606</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>266</v>
       </c>
@@ -5853,7 +6574,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>278</v>
       </c>
@@ -5867,7 +6588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>279</v>
       </c>
@@ -5891,10 +6612,10 @@
         <v>606</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>287</v>
       </c>
@@ -5908,7 +6629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>288</v>
       </c>
@@ -5922,7 +6643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>289</v>
       </c>
@@ -5940,10 +6661,10 @@
         <v>396</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>298</v>
       </c>
@@ -5957,7 +6678,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>299</v>
       </c>
@@ -5974,7 +6695,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>300</v>
       </c>
@@ -5988,7 +6709,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>301</v>
       </c>
@@ -6002,10 +6723,10 @@
         <v>280</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>329</v>
       </c>
@@ -6019,7 +6740,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>330</v>
       </c>
@@ -6030,7 +6751,7 @@
         <v>304</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>280</v>
@@ -6039,10 +6760,10 @@
         <v>370</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>331</v>
       </c>
@@ -6069,33 +6790,36 @@
         <v>606</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>308</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>280</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>333</v>
       </c>
@@ -6109,7 +6833,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>334</v>
       </c>
@@ -6123,7 +6847,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>335</v>
       </c>
@@ -6137,7 +6861,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>336</v>
       </c>
@@ -6154,10 +6878,10 @@
         <v>280</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>337</v>
       </c>
@@ -6178,7 +6902,7 @@
         <v>546</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -6266,10 +6990,10 @@
         <v>546</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -6431,10 +7155,10 @@
         <v>546</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -6565,7 +7289,7 @@
         <v>396</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -6611,7 +7335,7 @@
         <v>396</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -6631,7 +7355,7 @@
         <v>546</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -6916,13 +7640,13 @@
         <v>452</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>396</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -6961,7 +7685,7 @@
         <v>606</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -7139,7 +7863,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>534</v>
       </c>
@@ -7153,7 +7877,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>535</v>
       </c>
@@ -7167,7 +7891,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>536</v>
       </c>
@@ -7181,7 +7905,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>537</v>
       </c>
@@ -7198,7 +7922,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>538</v>
       </c>
@@ -7212,7 +7936,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>539</v>
       </c>
@@ -7230,7 +7954,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>540</v>
       </c>
@@ -7244,7 +7968,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>541</v>
       </c>
@@ -7258,7 +7982,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>544</v>
       </c>
@@ -7273,7 +7997,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>549</v>
       </c>
@@ -7291,10 +8015,10 @@
         <v>606</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>562</v>
       </c>
@@ -7312,7 +8036,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>563</v>
       </c>
@@ -7326,7 +8050,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>564</v>
       </c>
@@ -7340,7 +8064,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>565</v>
       </c>
@@ -7354,7 +8078,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>566</v>
       </c>
@@ -7372,13 +8096,16 @@
         <v>606</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>567</v>
       </c>
@@ -7396,10 +8123,10 @@
         <v>606</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>570</v>
       </c>
@@ -7413,7 +8140,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>608</v>
       </c>
@@ -7431,13 +8158,16 @@
         <v>606</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>609</v>
       </c>
@@ -7451,7 +8181,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>610</v>
       </c>
@@ -7465,7 +8195,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>611</v>
       </c>
@@ -7479,7 +8209,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>612</v>
       </c>
@@ -7493,7 +8223,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>613</v>
       </c>
@@ -7511,10 +8241,13 @@
         <v>606</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>614</v>
       </c>
@@ -7525,16 +8258,19 @@
         <v>584</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>546</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>615</v>
       </c>
@@ -7549,7 +8285,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>616</v>
       </c>
@@ -7564,7 +8300,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>617</v>
       </c>
@@ -7579,7 +8315,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>618</v>
       </c>
@@ -7593,7 +8329,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>619</v>
       </c>
@@ -7607,8 +8343,11 @@
       <c r="J206" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>620</v>
       </c>
@@ -7623,7 +8362,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>621</v>
       </c>
@@ -7638,7 +8377,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>622</v>
       </c>
@@ -7649,33 +8388,39 @@
         <v>600</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>546</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>623</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>602</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M210" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>624</v>
       </c>
@@ -7689,8 +8434,11 @@
       <c r="J211" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>625</v>
       </c>
@@ -7704,7 +8452,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>639</v>
       </c>
@@ -7718,7 +8466,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>640</v>
       </c>
@@ -7733,10 +8481,10 @@
         <v>606</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>641</v>
       </c>
@@ -7751,7 +8499,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>642</v>
       </c>
@@ -7766,7 +8514,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>643</v>
       </c>
@@ -7781,7 +8529,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>644</v>
       </c>
@@ -7795,9 +8543,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>645</v>
@@ -7809,12 +8557,15 @@
         <v>606</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>647</v>
@@ -7826,9 +8577,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>649</v>
@@ -7837,18 +8588,21 @@
         <v>650</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>606</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>651</v>
@@ -7861,9 +8615,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>653</v>
@@ -7875,15 +8629,15 @@
         <v>606</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>655</v>
@@ -7893,15 +8647,18 @@
         <v>606</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>656</v>
@@ -7913,9 +8670,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>658</v>
@@ -7928,12 +8685,12 @@
         <v>606</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>660</v>
@@ -7945,9 +8702,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>662</v>
@@ -7959,9 +8716,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>664</v>
@@ -7973,9 +8730,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>666</v>
@@ -7987,24 +8744,23 @@
         <v>606</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D232" s="2"/>
       <c r="K232" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>670</v>
@@ -8016,40 +8772,47 @@
         <v>606</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="K234" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C235" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>674</v>
       </c>
+      <c r="D235" s="2"/>
       <c r="K235" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L235" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>883</v>
+        <v>675</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>676</v>
@@ -8058,60 +8821,53 @@
       <c r="K236" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="L236" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="M236" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="D237" s="2"/>
       <c r="K237" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="2" t="s">
         <v>680</v>
       </c>
+      <c r="D238" s="2"/>
       <c r="K238" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D239" s="2"/>
       <c r="K239" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>683</v>
@@ -8123,23 +8879,35 @@
         <v>606</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="2" t="s">
         <v>686</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>1033</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L241" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>687</v>
@@ -8147,40 +8915,31 @@
       <c r="C242" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>1036</v>
-      </c>
+      <c r="D242" s="2"/>
       <c r="K242" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="L242" s="1" t="s">
-        <v>767</v>
-      </c>
       <c r="M242" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D243" s="2"/>
       <c r="K243" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="M243" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>691</v>
@@ -8188,13 +8947,31 @@
       <c r="C244" s="1" t="s">
         <v>692</v>
       </c>
+      <c r="E244" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="K244" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>693</v>
@@ -8202,31 +8979,13 @@
       <c r="C245" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="J245" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="K245" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>695</v>
@@ -8238,23 +8997,24 @@
         <v>606</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="2" t="s">
         <v>698</v>
       </c>
+      <c r="D247" s="2"/>
       <c r="K247" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>699</v>
@@ -8267,9 +9027,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>701</v>
@@ -8282,527 +9042,545 @@
         <v>606</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D250" s="2"/>
-      <c r="K250" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L251" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
-        <v>739</v>
-      </c>
       <c r="B253" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>744</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="L254" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="2"/>
+      <c r="L255" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="L255" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
-        <v>742</v>
-      </c>
       <c r="B256" s="1" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="D256" s="2"/>
       <c r="L256" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="D257" s="2"/>
       <c r="L257" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="D258" s="2"/>
+      <c r="D258" s="3"/>
       <c r="L258" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D259" s="3"/>
       <c r="L259" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M259" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="L260" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="L261" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="L262" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>775</v>
-      </c>
+      <c r="D263" s="2"/>
       <c r="L263" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="D264" s="2"/>
       <c r="L264" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="D265" s="2"/>
       <c r="L265" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="D266" s="2"/>
       <c r="L266" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>782</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D267" s="2"/>
       <c r="L267" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D268" s="2"/>
+      <c r="D268" s="2" t="s">
+        <v>995</v>
+      </c>
       <c r="L268" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M268" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>998</v>
-      </c>
+      <c r="D269" s="2"/>
       <c r="L269" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M269" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D270" s="2"/>
       <c r="L270" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>791</v>
-      </c>
+      <c r="D271" s="2"/>
       <c r="L271" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B272" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="D272" s="2"/>
       <c r="L272" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B273" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="L273" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>797</v>
-      </c>
+      <c r="D274" s="2"/>
       <c r="L274" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="D275" s="2"/>
       <c r="L275" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M275" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="D276" s="2"/>
+      <c r="E276" s="1" t="s">
+        <v>764</v>
+      </c>
       <c r="L276" s="1" t="s">
-        <v>5</v>
+        <v>764</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>816</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>767</v>
+        <v>815</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="M277" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C278" s="2" t="s">
         <v>818</v>
       </c>
+      <c r="D278" s="2"/>
       <c r="L278" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="D279" s="2"/>
-      <c r="L279" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
+      <c r="L280" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="L281" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="L280" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
+      <c r="B282" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C282" s="2" t="s">
+      <c r="B283" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="D282" s="2"/>
-      <c r="L282" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>828</v>
-      </c>
+      <c r="D283" s="2"/>
       <c r="L283" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>836</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D284" s="2"/>
       <c r="L284" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>839</v>
       </c>
@@ -8814,13 +9592,10 @@
       </c>
       <c r="D285" s="2"/>
       <c r="L285" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="M285" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>842</v>
       </c>
@@ -8832,40 +9607,39 @@
       </c>
       <c r="D286" s="2"/>
       <c r="L286" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>845</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="D287" s="2"/>
       <c r="L287" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D288" s="2"/>
+      <c r="C288" s="1" t="s">
+        <v>848</v>
+      </c>
       <c r="L288" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>852</v>
       </c>
@@ -8876,10 +9650,10 @@
         <v>851</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>855</v>
       </c>
@@ -8890,716 +9664,743 @@
         <v>854</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>858</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C291" s="2" t="s">
         <v>857</v>
       </c>
+      <c r="D291" s="2"/>
       <c r="L291" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>861</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="D292" s="2"/>
       <c r="L292" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>864</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>863</v>
-      </c>
+      <c r="D293" s="2"/>
       <c r="L293" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>865</v>
       </c>
       <c r="D294" s="2"/>
       <c r="L294" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B295" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="N294" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="B296" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="M296" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D295" s="2"/>
-      <c r="L295" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="M295" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>873</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="B298" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D298" s="2"/>
+      <c r="M298" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="M297" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
+      <c r="B299" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="M298" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A299" s="1" t="s">
+      <c r="B300" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="D299" s="2"/>
-      <c r="M299" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
+      <c r="B301" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="M300" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
+      <c r="B302" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D302" s="2"/>
+      <c r="M302" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="M301" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A302" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="C302" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="M302" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A303" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="M303" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="D303" s="2"/>
-      <c r="M303" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A304" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="B304" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="M304" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A305" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C305" s="1" t="s">
-        <v>907</v>
-      </c>
+      <c r="C305" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D305" s="2"/>
       <c r="M305" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="D306" s="2"/>
       <c r="M306" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N306" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D308" s="2"/>
+      <c r="M308" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="D307" s="2"/>
-      <c r="M307" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A308" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B308" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C309" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="M308" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A309" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="D309" s="2"/>
       <c r="M309" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="D310" s="2"/>
       <c r="M310" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="D311" s="2"/>
-      <c r="M311" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A312" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>921</v>
       </c>
       <c r="M312" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="C313" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="M313" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="M313" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A314" s="1" t="s">
-        <v>926</v>
-      </c>
       <c r="B314" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>932</v>
       </c>
       <c r="M314" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="M315" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="N315" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M316" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="N316" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="M315" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A316" s="1" t="s">
+      <c r="B317" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="M317" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="M316" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A317" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="M317" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A318" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="C318" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="M318" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="N318" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="M318" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A319" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>942</v>
       </c>
       <c r="M319" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N319" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="D320" s="2"/>
+      <c r="M320" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="M321" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="M320" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A321" s="1" t="s">
+      <c r="B322" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="M322" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="D321" s="2"/>
-      <c r="M321" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="M322" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="C323" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="M323" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="N323" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="M323" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>963</v>
       </c>
       <c r="D324" s="2"/>
       <c r="M324" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="M325" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="D325" s="2"/>
-      <c r="M325" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>968</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>967</v>
       </c>
       <c r="M326" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>970</v>
-      </c>
       <c r="M327" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>971</v>
       </c>
       <c r="C328" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="M328" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="M328" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A329" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>974</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>973</v>
       </c>
       <c r="M329" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="M330" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="M330" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A331" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>978</v>
-      </c>
+      <c r="D331" s="2"/>
       <c r="M331" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="D332" s="2"/>
+      <c r="C332" s="1" t="s">
+        <v>978</v>
+      </c>
       <c r="M332" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="M333" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>986</v>
       </c>
       <c r="C334" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="M334" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="M334" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A335" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>988</v>
       </c>
       <c r="D335" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="M335" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="M335" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A336" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>990</v>
-      </c>
       <c r="C336" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>994</v>
       </c>
       <c r="M336" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>996</v>
-      </c>
       <c r="C337" s="1" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="M337" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>1007</v>
-      </c>
       <c r="M338" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>1011</v>
-      </c>
       <c r="M339" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>1013</v>
@@ -9611,131 +10412,134 @@
         <v>1015</v>
       </c>
       <c r="M340" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>1016</v>
-      </c>
       <c r="C341" s="1" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="M341" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+      <c r="N341" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="M342" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>1027</v>
-      </c>
       <c r="C343" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1003</v>
+        <v>1032</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="M344" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M345" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M344" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A345" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="M345" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A346" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="C346" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D346" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M346" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="M346" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A347" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C347" s="2" t="s">
+      <c r="D347" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D347" s="1" t="s">
-        <v>1022</v>
-      </c>
       <c r="M347" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>1044</v>
@@ -9747,29 +10551,694 @@
         <v>1046</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A349" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M349" s="1" t="s">
-        <v>872</v>
-      </c>
+      <c r="D350" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N350" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N351" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N352" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N353" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N354" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N355" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N356" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N357" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N358" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N360" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N361" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N362" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N363" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N364" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N365" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N366" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N367" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="N368" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N369" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N370" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N371" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N372" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N373" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N374" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N375" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N376" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N377" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N378" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="N379" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N380" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N381" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="N382" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="N383" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N384" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N385" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N386" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="N387" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N388" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B392" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE9F5B-E08B-4E70-A388-9C4E90570FD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C983F6B2-E6B9-4891-91C6-55099E77B62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7CC5C-613E-4763-ADAE-44305D3F834E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="2340" windowWidth="17520" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="20200521" sheetId="2" r:id="rId2"/>
+    <sheet name="待上市" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="20200521" sheetId="2" r:id="rId3"/>
+    <sheet name="20200522" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1216">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4479,6 +4481,42 @@
   </si>
   <si>
     <t>新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙磁科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛市科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中签率(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200525</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4684,6 +4722,99 @@
         <a:xfrm>
           <a:off x="0" y="13030200"/>
           <a:ext cx="9809524" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>54914</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432B5E8B-53CD-407C-BBDE-75C620D6017D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17885714" cy="6342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7295</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>170659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44AB1F6-DFFC-4F97-86F6-547C80ACC2A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="17838095" cy="6323809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4957,6 +5088,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97317EF-024C-458C-B558-50940169FD78}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300835</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20200525</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N392"/>
   <sheetViews>
@@ -11227,11 +11431,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE9F5B-E08B-4E70-A388-9C4E90570FD0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -11241,4 +11445,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7001E6-C80A-4048-91DA-7F9EA31CE39F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7CC5C-613E-4763-ADAE-44305D3F834E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0B30C-1D77-46F5-9CC9-69F323C18B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="待上市" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="20200521" sheetId="2" r:id="rId3"/>
     <sheet name="20200522" sheetId="3" r:id="rId4"/>
+    <sheet name="20200525" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4826,6 +4827,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>245390</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFBEFB9-D90E-41AE-8E4F-D7CE9958A641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18076190" cy="6219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>359676</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>113517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C94E8D-16AD-4C3A-8AD5-37B2399FD834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6334125"/>
+          <a:ext cx="18190476" cy="6266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11451,7 +11545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7001E6-C80A-4048-91DA-7F9EA31CE39F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -11462,4 +11556,21 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA237A-E0B0-475B-B4FD-68A78200F5C2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0B30C-1D77-46F5-9CC9-69F323C18B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D36AD80-0225-4C57-AD50-358B4EDBA015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="待上市" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="20200521" sheetId="2" r:id="rId3"/>
     <sheet name="20200522" sheetId="3" r:id="rId4"/>
     <sheet name="20200525" sheetId="5" r:id="rId5"/>
+    <sheet name="20200526" sheetId="6" r:id="rId6"/>
+    <sheet name="20200527" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4525,7 +4527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4546,6 +4548,15 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4574,12 +4585,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4920,6 +4932,324 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>378724</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994F6EF1-8505-4D31-9B9A-A3DB66B1A1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18209524" cy="6304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>151612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A64515-4872-41D8-AEE0-72DDE8817280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="18285714" cy="6304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>350152</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>132564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0020416-9C03-4382-91CE-23A2AFE335A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13030200"/>
+          <a:ext cx="18180952" cy="6285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>254914</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>180206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631A2EF3-5C86-4AB7-9B56-128A60D6B35E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19545300"/>
+          <a:ext cx="18085714" cy="6152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6B0E84-0E99-42F2-BF52-949E26DA5E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="6590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>435866</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>123018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A433F8-C395-4060-B1F2-AA6A9A6BED40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6696075"/>
+          <a:ext cx="18266666" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>369200</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>8709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8221CF-4A9E-46FC-A3FC-F2248BBD7F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13392150"/>
+          <a:ext cx="18200000" cy="6523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11562,7 +11892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA237A-E0B0-475B-B4FD-68A78200F5C2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -11573,4 +11903,42 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32992497-F154-4ACE-818F-321C819E7E32}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476E8C92-56E7-44E5-9F94-0142347A8AC9}">
+  <dimension ref="A75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D36AD80-0225-4C57-AD50-358B4EDBA015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A274B-5803-4BDB-924C-31F965EC500F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10515" yWindow="3870" windowWidth="17520" windowHeight="11460" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="待上市" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="20200525" sheetId="5" r:id="rId5"/>
     <sheet name="20200526" sheetId="6" r:id="rId6"/>
     <sheet name="20200527" sheetId="7" r:id="rId7"/>
+    <sheet name="20200528" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5250,6 +5251,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>151273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759E1582-EB02-4CBA-BCFC-BF9A1C6B2885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18257143" cy="9019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>359676</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>46511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60AE5F1-236F-4649-A8C5-05F079EEA7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9229725"/>
+          <a:ext cx="18190476" cy="8914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11926,7 +12020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476E8C92-56E7-44E5-9F94-0142347A8AC9}">
   <dimension ref="A75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
@@ -11941,4 +12035,21 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25D3EEE-F468-4B15-BF68-0212CC399E1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A274B-5803-4BDB-924C-31F965EC500F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A227C426-1B41-4509-B843-E27159CA1074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="3870" windowWidth="17520" windowHeight="11460" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8835" yWindow="1905" windowWidth="17520" windowHeight="11460" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="待上市" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="20200526" sheetId="6" r:id="rId6"/>
     <sheet name="20200527" sheetId="7" r:id="rId7"/>
     <sheet name="20200528" sheetId="8" r:id="rId8"/>
+    <sheet name="20200529" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1223">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4521,6 +4522,34 @@
   </si>
   <si>
     <t>20200525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首板：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英洛华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广电网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国轩高科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5344,6 +5373,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>151227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2454DE2-965E-4D40-ABD2-AA07920FC981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="9380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>55967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD9D5CD-C795-4920-9537-9DB85AF4DAAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9591675"/>
+          <a:ext cx="18285714" cy="9466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12041,7 +12163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25D3EEE-F468-4B15-BF68-0212CC399E1B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -12052,4 +12174,62 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC31DF62-EEBA-4DCD-A986-B3E8B6ECC0BA}">
+  <dimension ref="A108:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="1">
+        <v>688021</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/首板或次新前几版.xlsx
+++ b/首板或次新前几版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\other\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A227C426-1B41-4509-B843-E27159CA1074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9430D833-0597-4A7E-BB67-2C8060454E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="1905" windowWidth="17520" windowHeight="11460" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="待上市" sheetId="4" r:id="rId1"/>
